--- a/results/javascript/d3/d3.xlsx
+++ b/results/javascript/d3/d3.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamc\Desktop\results\javascript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashort11/research/CodeSize/results/javascript/d3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC6A580-52B2-4C27-A819-687F22BF42C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2694EC-E9D5-1C4F-B6F3-993EF6D69510}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="12105"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="23980" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -100,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -936,16 +944,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1015,15 +1023,15 @@
         <v>6.4444444444444446</v>
       </c>
       <c r="N2" s="2">
-        <f>_xlfn.STDEV.P(C2:C10)</f>
-        <v>2.9481109247603552</v>
+        <f>_xlfn.STDEV.S(C2:C10)</f>
+        <v>3.1269438398822866</v>
       </c>
       <c r="O2" s="2">
         <f>N2/SQRT(COUNT(C2:C10))</f>
-        <v>0.98270364158678503</v>
+        <v>1.0423146132940955</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1058,15 +1066,15 @@
         <v>67.888888888888886</v>
       </c>
       <c r="N3" s="2">
-        <f>_xlfn.STDEV.P(D2:D10)</f>
-        <v>24.296522130838419</v>
+        <f>_xlfn.STDEV.S(D2:D10)</f>
+        <v>25.770353336947309</v>
       </c>
       <c r="O3" s="2">
         <f>N3/SQRT(COUNT(D2:D10))</f>
-        <v>8.0988407102794735</v>
+        <v>8.590117778982437</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1101,15 +1109,15 @@
         <v>3.5555555555555554</v>
       </c>
       <c r="N4" s="2">
-        <f>_xlfn.STDEV.P(E2:E10)</f>
-        <v>2.6293687924887181</v>
+        <f>_xlfn.STDEV.S(E2:E10)</f>
+        <v>2.7888667551135855</v>
       </c>
       <c r="O4" s="2">
         <f>N4/SQRT(COUNT(E2:E10))</f>
-        <v>0.87645626416290601</v>
+        <v>0.9296222517045285</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <f>_xlfn.STDEV.P(F2:F10)</f>
+        <f>_xlfn.STDEV.S(F2:F10)</f>
         <v>0</v>
       </c>
       <c r="O5" s="2">
@@ -1152,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1232,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
